--- a/M_Partner.xlsx
+++ b/M_Partner.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="7980" firstSheet="11" activeTab="13"/>
+    <workbookView windowWidth="15360" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Home page" sheetId="1" r:id="rId1"/>
@@ -2171,23 +2171,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2201,17 +2194,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2227,22 +2221,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2264,7 +2242,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2279,14 +2286,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2294,14 +2301,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2328,13 +2328,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2346,19 +2340,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2376,13 +2364,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2394,13 +2478,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2412,103 +2502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2537,17 +2537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2559,24 +2548,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2596,17 +2567,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2626,11 +2620,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2639,7 +2639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2657,134 +2657,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2809,9 +2809,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2824,17 +2821,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3160,8 +3148,8 @@
   <sheetPr/>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3316,82 +3304,82 @@
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="60" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" ht="60" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3399,57 +3387,57 @@
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" ht="75" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3457,32 +3445,32 @@
       <c r="A12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3490,30 +3478,30 @@
       <c r="A13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16" t="s">
+      <c r="I13" s="11"/>
+      <c r="J13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3521,30 +3509,30 @@
       <c r="A14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16" t="s">
+      <c r="I14" s="11"/>
+      <c r="J14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3552,30 +3540,30 @@
       <c r="A15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16" t="s">
+      <c r="I15" s="11"/>
+      <c r="J15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3583,30 +3571,30 @@
       <c r="A16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16" t="s">
+      <c r="I16" s="11"/>
+      <c r="J16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3614,30 +3602,30 @@
       <c r="A17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16" t="s">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3645,30 +3633,30 @@
       <c r="A18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>84</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="E18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16" t="s">
+      <c r="I18" s="11"/>
+      <c r="J18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3676,30 +3664,30 @@
       <c r="A19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16" t="s">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16" t="s">
+      <c r="I19" s="11"/>
+      <c r="J19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3707,26 +3695,26 @@
       <c r="A20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16" t="s">
+      <c r="E20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3884,78 +3872,78 @@
       <c r="A6" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>573</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" ht="75" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>577</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="75" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>581</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="7" t="s">
         <v>44</v>
       </c>
@@ -3967,28 +3955,28 @@
       <c r="A9" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>577</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="7" t="s">
         <v>44</v>
       </c>
@@ -4000,28 +3988,28 @@
       <c r="A10" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>577</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="7" t="s">
         <v>44</v>
       </c>
@@ -4185,76 +4173,76 @@
       <c r="A6" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>591</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" ht="60" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>595</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="75" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>599</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="7" t="s">
         <v>44</v>
       </c>
@@ -4266,26 +4254,26 @@
       <c r="A9" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>599</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4438,51 +4426,51 @@
       <c r="A6" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>606</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" ht="75" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>610</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4635,103 +4623,103 @@
       <c r="A6" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>614</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" ht="45" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>555</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="90" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>560</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" ht="75" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>564</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="7" t="s">
         <v>44</v>
       </c>
@@ -4743,26 +4731,26 @@
       <c r="A10" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>555</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4787,7 +4775,7 @@
   <sheetPr/>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -4918,30 +4906,30 @@
       <c r="A6" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4949,32 +4937,32 @@
       <c r="A7" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4982,30 +4970,30 @@
       <c r="A8" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5013,30 +5001,30 @@
       <c r="A9" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8" t="s">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5044,30 +5032,30 @@
       <c r="A10" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="s">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5075,32 +5063,32 @@
       <c r="A11" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8" t="s">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5108,30 +5096,30 @@
       <c r="A12" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5139,30 +5127,30 @@
       <c r="A13" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8" t="s">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5170,59 +5158,59 @@
       <c r="A14" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8" t="s">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="15"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" ht="90" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8" t="s">
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5230,30 +5218,30 @@
       <c r="A16" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8" t="s">
+      <c r="I16" s="7"/>
+      <c r="J16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5261,30 +5249,30 @@
       <c r="A17" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="E17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8" t="s">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5292,30 +5280,30 @@
       <c r="A18" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8" t="s">
+      <c r="I18" s="7"/>
+      <c r="J18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5323,30 +5311,30 @@
       <c r="A19" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8" t="s">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5354,30 +5342,30 @@
       <c r="A20" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8" t="s">
+      <c r="I20" s="7"/>
+      <c r="J20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5385,30 +5373,30 @@
       <c r="A21" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8" t="s">
+      <c r="I21" s="7"/>
+      <c r="J21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5416,30 +5404,30 @@
       <c r="A22" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="E22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8" t="s">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5447,30 +5435,30 @@
       <c r="A23" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8" t="s">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8" t="s">
+      <c r="I23" s="7"/>
+      <c r="J23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5478,30 +5466,30 @@
       <c r="A24" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8" t="s">
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5509,30 +5497,30 @@
       <c r="A25" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="E25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8" t="s">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8" t="s">
+      <c r="I25" s="7"/>
+      <c r="J25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5540,30 +5528,30 @@
       <c r="A26" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8" t="s">
+      <c r="I26" s="7"/>
+      <c r="J26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5571,30 +5559,30 @@
       <c r="A27" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8" t="s">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8" t="s">
+      <c r="I27" s="7"/>
+      <c r="J27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5602,30 +5590,30 @@
       <c r="A28" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5652,21 +5640,21 @@
   <sheetPr/>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="A1:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.4285714285714" style="17" customWidth="1"/>
-    <col min="2" max="2" width="18.2857142857143" style="17" customWidth="1"/>
-    <col min="3" max="3" width="15.2857142857143" style="17" customWidth="1"/>
-    <col min="4" max="4" width="18.1428571428571" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.8571428571429" style="17" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" style="17" customWidth="1"/>
-    <col min="7" max="7" width="18.2857142857143" style="17" customWidth="1"/>
-    <col min="8" max="8" width="18.5714285714286" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="17"/>
+    <col min="1" max="1" width="14.4285714285714" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18.2857142857143" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.2857142857143" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18.1428571428571" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.8571428571429" style="13" customWidth="1"/>
+    <col min="6" max="6" width="18.1428571428571" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.2857142857143" style="13" customWidth="1"/>
+    <col min="8" max="8" width="18.5714285714286" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5784,807 +5772,807 @@
       <c r="A6" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" ht="75" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>102</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="90" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" ht="75" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" ht="60" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="E10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" ht="60" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="s">
+      <c r="E11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" ht="75" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="11" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16" t="s">
+      <c r="E12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" ht="90" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="11" t="s">
         <v>126</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" ht="75" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>130</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" ht="75" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" ht="75" spans="1:11">
       <c r="A16" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="s">
+      <c r="E16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" ht="105" spans="1:11">
       <c r="A17" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>141</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" ht="90" spans="1:11">
       <c r="A18" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>145</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" ht="60" spans="1:11">
       <c r="A19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16" t="s">
+      <c r="E19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" ht="75" spans="1:11">
       <c r="A20" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="11" t="s">
         <v>153</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16" t="s">
+      <c r="E20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" ht="105" spans="1:11">
       <c r="A21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="11" t="s">
         <v>156</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16" t="s">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" ht="75" spans="1:11">
       <c r="A22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="11" t="s">
         <v>160</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16" t="s">
+      <c r="E22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" ht="60" spans="1:11">
       <c r="A23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16" t="s">
+      <c r="E23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" ht="90" spans="1:11">
       <c r="A24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16" t="s">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" ht="60" spans="1:11">
       <c r="A25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="11" t="s">
         <v>170</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16" t="s">
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" ht="75" spans="1:11">
       <c r="A26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16" t="s">
+      <c r="E26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" ht="90" spans="1:11">
       <c r="A27" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="11" t="s">
         <v>178</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16" t="s">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
     </row>
     <row r="28" ht="75" spans="1:11">
       <c r="A28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="11" t="s">
         <v>182</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16" t="s">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
     </row>
     <row r="29" ht="75" spans="1:11">
       <c r="A29" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="11" t="s">
         <v>186</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16" t="s">
+      <c r="E29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
     </row>
     <row r="30" ht="105" spans="1:11">
       <c r="A30" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="11" t="s">
         <v>190</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16" t="s">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
     </row>
     <row r="31" ht="75" spans="1:11">
       <c r="A31" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="11" t="s">
         <v>194</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16" t="s">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" ht="75" spans="1:11">
       <c r="A32" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="11" t="s">
         <v>198</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16" t="s">
+      <c r="E32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
     </row>
     <row r="33" ht="105" spans="1:11">
       <c r="A33" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="11" t="s">
         <v>202</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16" t="s">
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
     </row>
     <row r="34" ht="75" spans="1:11">
       <c r="A34" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="11" t="s">
         <v>204</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
     </row>
     <row r="35" ht="75" spans="1:11">
       <c r="A35" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="11" t="s">
         <v>208</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16" t="s">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
     </row>
     <row r="36" ht="75" spans="1:11">
       <c r="A36" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="11" t="s">
         <v>212</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16" t="s">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
     </row>
     <row r="37" ht="75" spans="1:11">
       <c r="A37" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="11" t="s">
         <v>216</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16" t="s">
+      <c r="I37" s="11"/>
+      <c r="J37" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6592,101 +6580,101 @@
       <c r="A38" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="11" t="s">
         <v>222</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16" t="s">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
     </row>
     <row r="39" ht="75" spans="1:11">
       <c r="A39" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="11" t="s">
         <v>226</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16" t="s">
+      <c r="E39" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
     </row>
     <row r="40" ht="105" spans="1:11">
       <c r="A40" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="11" t="s">
         <v>230</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16" t="s">
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
     </row>
     <row r="41" ht="90" spans="1:11">
       <c r="A41" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="11" t="s">
         <v>234</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16" t="s">
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="K5:K41">
@@ -6714,8 +6702,8 @@
   <sheetPr/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="A1:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -6845,182 +6833,182 @@
       <c r="A6" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>238</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" ht="75" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>242</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="75" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>246</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" ht="90" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>250</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" ht="75" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>254</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="E10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" ht="90" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>258</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="s">
+      <c r="E11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" ht="75" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="11" t="s">
         <v>262</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7028,301 +7016,301 @@
       <c r="A13" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="11" t="s">
         <v>268</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
+      <c r="E13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" ht="75" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>272</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16" t="s">
+      <c r="E14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" ht="75" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>276</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16" t="s">
+      <c r="E15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" ht="75" spans="1:11">
       <c r="A16" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="11" t="s">
         <v>280</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="s">
+      <c r="E16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" ht="60" spans="1:11">
       <c r="A17" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>283</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16" t="s">
+      <c r="E17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" ht="75" spans="1:11">
       <c r="A18" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>287</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16" t="s">
+      <c r="E18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" ht="75" spans="1:11">
       <c r="A19" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>291</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16" t="s">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" ht="75" spans="1:11">
       <c r="A20" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="11" t="s">
         <v>295</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16" t="s">
+      <c r="E20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" ht="75" spans="1:11">
       <c r="A21" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="11" t="s">
         <v>299</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16" t="s">
+      <c r="E21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" ht="75" spans="1:11">
       <c r="A22" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="11" t="s">
         <v>303</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16" t="s">
+      <c r="E22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" ht="75" spans="1:11">
       <c r="A23" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="11" t="s">
         <v>306</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16" t="s">
+      <c r="E23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" ht="75" spans="1:11">
       <c r="A24" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="11" t="s">
         <v>310</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16" t="s">
+      <c r="E24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7347,8 +7335,8 @@
   <sheetPr/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -7477,326 +7465,326 @@
       <c r="A6" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>313</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" ht="60" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>317</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="60" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>321</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" ht="90" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>325</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" ht="90" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>329</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="E10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" ht="90" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>333</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="s">
+      <c r="E11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" ht="90" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="11" t="s">
         <v>337</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16" t="s">
+      <c r="E12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" ht="60" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="11" t="s">
         <v>341</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
+      <c r="E13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" ht="75" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>345</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16" t="s">
+      <c r="E14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" ht="60" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>349</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16" t="s">
+      <c r="E15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" ht="75" spans="1:11">
       <c r="A16" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="11" t="s">
         <v>353</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="s">
+      <c r="E16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" ht="60" spans="1:11">
       <c r="A17" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>357</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16" t="s">
+      <c r="E17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" ht="60" spans="1:11">
       <c r="A18" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>361</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16" t="s">
+      <c r="E18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7824,15 +7812,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7142857142857" style="17" customWidth="1"/>
-    <col min="2" max="2" width="17.7142857142857" style="17" customWidth="1"/>
-    <col min="3" max="3" width="15.1428571428571" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.8571428571429" style="17" customWidth="1"/>
-    <col min="5" max="5" width="18.5714285714286" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.5714285714286" style="17" customWidth="1"/>
-    <col min="7" max="7" width="17.7142857142857" style="17" customWidth="1"/>
-    <col min="8" max="8" width="18.1428571428571" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="17"/>
+    <col min="1" max="1" width="14.7142857142857" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.7142857142857" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.1428571428571" style="13" customWidth="1"/>
+    <col min="4" max="4" width="19.8571428571429" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.5714285714286" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.5714285714286" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.7142857142857" style="13" customWidth="1"/>
+    <col min="8" max="8" width="18.1428571428571" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -7950,32 +7938,32 @@
       <c r="A6" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>365</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" ht="165" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -8000,7 +7988,7 @@
       <c r="A8" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -8025,7 +8013,7 @@
       <c r="A9" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -8050,7 +8038,7 @@
       <c r="A10" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -8075,7 +8063,7 @@
       <c r="A11" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -8100,7 +8088,7 @@
       <c r="A12" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -8125,7 +8113,7 @@
       <c r="A13" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -8137,7 +8125,7 @@
       <c r="E13" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>388</v>
       </c>
       <c r="G13" s="7"/>
@@ -8156,13 +8144,13 @@
       <c r="A14" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>391</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="11" t="s">
         <v>366</v>
       </c>
       <c r="E14" s="7"/>
@@ -8179,13 +8167,13 @@
       <c r="A15" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>394</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="11" t="s">
         <v>366</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -8351,426 +8339,426 @@
       <c r="A6" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>398</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" ht="60" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>402</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="75" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>406</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" ht="45" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>410</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" ht="75" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>414</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="E10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" ht="45" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>416</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="s">
+      <c r="E11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" ht="60" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="11" t="s">
         <v>420</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16" t="s">
+      <c r="E12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" ht="60" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="11" t="s">
         <v>422</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
+      <c r="E13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" ht="75" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>426</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16" t="s">
+      <c r="E14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" ht="60" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>428</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16" t="s">
+      <c r="E15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" ht="75" spans="1:11">
       <c r="A16" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="11" t="s">
         <v>432</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="s">
+      <c r="E16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" ht="60" spans="1:11">
       <c r="A17" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>434</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16" t="s">
+      <c r="E17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" ht="75" spans="1:11">
       <c r="A18" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>438</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16" t="s">
+      <c r="E18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" ht="45" spans="1:11">
       <c r="A19" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>440</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16" t="s">
+      <c r="E19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" ht="60" spans="1:11">
       <c r="A20" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="11" t="s">
         <v>444</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16" t="s">
+      <c r="E20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" ht="60" spans="1:11">
       <c r="A21" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="11" t="s">
         <v>446</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16" t="s">
+      <c r="E21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" ht="75" spans="1:11">
       <c r="A22" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="11" t="s">
         <v>450</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16" t="s">
+      <c r="E22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8923,151 +8911,151 @@
       <c r="A6" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>452</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" ht="90" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>456</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="90" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>456</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" ht="105" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>456</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" ht="120" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>456</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" ht="150" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>456</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="7" t="s">
         <v>44</v>
       </c>
@@ -9079,153 +9067,153 @@
       <c r="A12" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="11" t="s">
         <v>456</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" ht="60" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="11" t="s">
         <v>456</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" ht="60" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>456</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" ht="75" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>456</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" ht="75" spans="1:11">
       <c r="A16" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="11" t="s">
         <v>456</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="11" t="s">
         <v>485</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" ht="90" spans="1:11">
       <c r="A17" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>488</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="I17" s="16"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="7" t="s">
         <v>44</v>
       </c>
@@ -9237,28 +9225,28 @@
       <c r="A18" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>494</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="E18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="7" t="s">
         <v>44</v>
       </c>
@@ -9421,26 +9409,26 @@
       <c r="A6" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>499</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" ht="60" spans="1:11">
       <c r="A7" s="7" t="s">
@@ -9455,10 +9443,10 @@
       <c r="D7" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>505</v>
       </c>
       <c r="G7" s="7"/>
@@ -9486,7 +9474,7 @@
       <c r="D8" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="11" t="s">
         <v>510</v>
       </c>
       <c r="F8" s="7"/>
@@ -9511,10 +9499,10 @@
       <c r="D9" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>505</v>
       </c>
       <c r="G9" s="7"/>
@@ -9542,7 +9530,7 @@
       <c r="D10" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>510</v>
       </c>
       <c r="F10" s="7"/>
@@ -9567,7 +9555,7 @@
       <c r="D11" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="11" t="s">
         <v>519</v>
       </c>
       <c r="F11" s="7"/>
@@ -9592,10 +9580,10 @@
       <c r="D12" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>523</v>
       </c>
       <c r="G12" s="7"/>
@@ -9623,7 +9611,7 @@
       <c r="D13" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="11" t="s">
         <v>510</v>
       </c>
       <c r="F13" s="7"/>
@@ -9648,7 +9636,7 @@
       <c r="D14" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="11" t="s">
         <v>519</v>
       </c>
       <c r="F14" s="7"/>
@@ -9673,10 +9661,10 @@
       <c r="D15" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>531</v>
       </c>
       <c r="G15" s="7"/>
@@ -9704,7 +9692,7 @@
       <c r="D16" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="11" t="s">
         <v>510</v>
       </c>
       <c r="F16" s="7"/>
@@ -9729,7 +9717,7 @@
       <c r="D17" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="11" t="s">
         <v>519</v>
       </c>
       <c r="F17" s="7"/>
@@ -9754,10 +9742,10 @@
       <c r="D18" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>539</v>
       </c>
       <c r="G18" s="7"/>
@@ -9785,7 +9773,7 @@
       <c r="D19" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="11" t="s">
         <v>510</v>
       </c>
       <c r="F19" s="7"/>
@@ -9793,9 +9781,9 @@
       <c r="H19" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" ht="45" spans="1:11">
       <c r="A20" s="7" t="s">
@@ -9810,7 +9798,7 @@
       <c r="D20" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="11" t="s">
         <v>519</v>
       </c>
       <c r="F20" s="7"/>
@@ -9818,34 +9806,34 @@
       <c r="H20" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" ht="45" spans="1:11">
       <c r="A21" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="11" t="s">
         <v>546</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16" t="s">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9998,103 +9986,103 @@
       <c r="A6" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>551</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" ht="45" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>555</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="105" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>560</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" ht="75" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>564</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="7" t="s">
         <v>44</v>
       </c>
@@ -10106,29 +10094,29 @@
       <c r="A10" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>555</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="51" spans="7:7">
-      <c r="G51" s="16">
+      <c r="G51" s="11">
         <v>9900000004</v>
       </c>
     </row>
